--- a/ExperimentProcess/Participants.xlsx
+++ b/ExperimentProcess/Participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csswi\Documents\GitHub\SP23-Immersive-Motivation\ExperimentProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BB92DA-C3B8-4CA2-94AD-D4CAC01BC945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27C018-F9DE-4D22-B110-BEF227CF4C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Participant Name</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Desktop</t>
+  </si>
+  <si>
+    <t>Lisa Imanura</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,11 +428,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentProcess/Participants.xlsx
+++ b/ExperimentProcess/Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csswi\Documents\GitHub\SP23-Immersive-Motivation\ExperimentProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27C018-F9DE-4D22-B110-BEF227CF4C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477BEFCA-DBDB-4E96-AAD5-2869989827D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Participant Name</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Lisa Imanura</t>
+  </si>
+  <si>
+    <t>David Swift</t>
+  </si>
+  <si>
+    <t>Part Number wasn't put in will fix soon</t>
+  </si>
+  <si>
+    <t>Vickie Swift</t>
   </si>
 </sst>
 </file>
@@ -405,18 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639A165E-6B8D-458E-B4B1-FA91FDE68ECF}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -438,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -446,15 +456,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -462,7 +478,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6">
         <v>5</v>
       </c>
@@ -470,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -478,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -486,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -494,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -502,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -510,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -518,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -526,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -534,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>

--- a/ExperimentProcess/Participants.xlsx
+++ b/ExperimentProcess/Participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csswi\Documents\GitHub\SP23-Immersive-Motivation\ExperimentProcess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izaug\OneDrive\Desktop\HCI\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477BEFCA-DBDB-4E96-AAD5-2869989827D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B86C80-8506-42C6-A67F-C509F21029ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Participant Name</t>
   </si>
@@ -63,6 +52,12 @@
   </si>
   <si>
     <t>Vickie Swift</t>
+  </si>
+  <si>
+    <t>Seshamalini Mohan</t>
+  </si>
+  <si>
+    <t>Lekha Tummala</t>
   </si>
 </sst>
 </file>
@@ -417,7 +412,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +444,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -471,6 +469,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5">
         <v>4</v>
       </c>

--- a/ExperimentProcess/Participants.xlsx
+++ b/ExperimentProcess/Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izaug\OneDrive\Desktop\HCI\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B86C80-8506-42C6-A67F-C509F21029ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5041F71-37D3-4160-B2DC-58261C628C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Participant Name</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Lekha Tummala</t>
+  </si>
+  <si>
+    <t>Ojaswi Sinha</t>
+  </si>
+  <si>
+    <t>Yanye Luther</t>
+  </si>
+  <si>
+    <t>James Yost</t>
+  </si>
+  <si>
+    <t>Annie Rudnick</t>
   </si>
 </sst>
 </file>
@@ -412,7 +424,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +503,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
@@ -499,6 +514,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="B8">
         <v>7</v>
       </c>
@@ -507,6 +525,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
@@ -523,6 +544,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>

--- a/ExperimentProcess/Participants.xlsx
+++ b/ExperimentProcess/Participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izaug\OneDrive\Desktop\HCI\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csswi\Documents\GitHub\SP23-Immersive-Motivation\ExperimentProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5041F71-37D3-4160-B2DC-58261C628C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0F9247-36CC-4534-890B-97CDE954C8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Participant Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Annie Rudnick</t>
+  </si>
+  <si>
+    <t>Cassy Hilberman</t>
+  </si>
+  <si>
+    <t>Joe Dezzani</t>
+  </si>
+  <si>
+    <t>Zach Hudson</t>
   </si>
 </sst>
 </file>
@@ -424,7 +433,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +545,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
@@ -555,6 +567,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
       <c r="B12">
         <v>11</v>
       </c>
@@ -563,6 +578,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>

--- a/ExperimentProcess/Participants.xlsx
+++ b/ExperimentProcess/Participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csswi\Documents\GitHub\SP23-Immersive-Motivation\ExperimentProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0F9247-36CC-4534-890B-97CDE954C8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9221704-723B-402A-959B-360F524334F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,9 +578,6 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
       <c r="B13">
         <v>12</v>
       </c>
@@ -589,6 +586,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
       <c r="B14">
         <v>13</v>
       </c>

--- a/ExperimentProcess/Participants.xlsx
+++ b/ExperimentProcess/Participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csswi\Documents\GitHub\SP23-Immersive-Motivation\ExperimentProcess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prime\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9221704-723B-402A-959B-360F524334F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E09982-A03F-4D78-95D5-DFEA0AB3AD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA11EECE-BA46-45B9-93E6-847A392BFF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Participant Name</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Zach Hudson</t>
+  </si>
+  <si>
+    <t>Zachary Fuller</t>
+  </si>
+  <si>
+    <t>Tanmay Naido</t>
+  </si>
+  <si>
+    <t>Lindsey Nielsen</t>
+  </si>
+  <si>
+    <t>Matthew Sturgeon</t>
+  </si>
+  <si>
+    <t>Varonica Wilson</t>
   </si>
 </sst>
 </file>
@@ -430,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639A165E-6B8D-458E-B4B1-FA91FDE68ECF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -464,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -475,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -489,7 +504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -500,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -511,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -522,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -533,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -544,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -555,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -566,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -577,7 +592,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>
@@ -585,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -596,12 +614,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
